--- a/biology/Zoologie/Cyllène_du_caryer/Cyllène_du_caryer.xlsx
+++ b/biology/Zoologie/Cyllène_du_caryer/Cyllène_du_caryer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyll%C3%A8ne_du_caryer</t>
+          <t>Cyllène_du_caryer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Megacyllene caryae
-Le Cyllène du caryer, Megacyllene caryae, est une espèce d'insectes coléoptères de la famille des cérambycidés, présente dans l'Est des États-Unis, mais également à Hiva Oa, îles Marquises, Polynésie française[3]. Il a été décrit par Gahan en 1908[4].
+Le Cyllène du caryer, Megacyllene caryae, est une espèce d'insectes coléoptères de la famille des cérambycidés, présente dans l'Est des États-Unis, mais également à Hiva Oa, îles Marquises, Polynésie française. Il a été décrit par Gahan en 1908.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyll%C3%A8ne_du_caryer</t>
+          <t>Cyllène_du_caryer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En anglais, Megacyllene caryae porte les noms communs de Hickory borer ou Painted hickory borer.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyll%C3%A8ne_du_caryer</t>
+          <t>Cyllène_du_caryer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, caryae, ainsi que son nom vernaculaire français, font référence au genre botanique Carya, des arbres à feuilles composées caduques comprenant une vingtaine d'espèces dont une douzaine sont originaires d'Amérique du Nord, les autres étant d'Asie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyll%C3%A8ne_du_caryer</t>
+          <t>Cyllène_du_caryer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cyllène du caryer se distingue du Cyllène du robinier (Megacyllene robiniae') par son scutellum orné d'un chevron (tache en forme de « V »), flanquée d'un trait de chaque côté et par ses pattes de couleur rougeâtre.
 </t>
